--- a/testData/Opencart_LoginData.xlsx
+++ b/testData/Opencart_LoginData.xlsx
@@ -1,40 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\myworkspaces\seleniumwebdriver\OpencartV121\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Automation Code\AutomateCI\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47704AFE-A492-43CB-82D7-6A46F57DC3F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B706D158-1D74-4419-B092-B87C9EBF1602}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16354" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
+    <workbookView xWindow="16350" yWindow="-105" windowWidth="33120" windowHeight="18000" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>username</t>
   </si>
@@ -67,9 +58,6 @@
   </si>
   <si>
     <t>xyz</t>
-  </si>
-  <si>
-    <t>pavanoltraining@gmail.com</t>
   </si>
   <si>
     <t>test@123</t>
@@ -485,20 +473,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{884FCF78-0A3E-40BF-9E26-11C478AF56E2}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.26953125" customWidth="1"/>
-    <col min="2" max="2" width="17.26953125" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" customWidth="1"/>
+    <col min="1" max="1" width="37.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -509,82 +497,69 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.5">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.5">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>12</v>
+    <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A6" s="3"/>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="21" x14ac:dyDescent="0.5">
-      <c r="A7" s="3"/>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{D3BE7519-95C3-4ACD-9AB4-5385C9508082}"/>
-    <hyperlink ref="A4" r:id="rId2" xr:uid="{8456409A-CACC-4B7E-B78E-75E713148E0E}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{5E52A498-5B14-4BDC-BBF1-05425B8AC197}"/>
-    <hyperlink ref="A5" r:id="rId4" xr:uid="{94E9D5A6-98A1-4A25-BDDE-C5B20EDA887E}"/>
-    <hyperlink ref="B2" r:id="rId5" xr:uid="{968262D0-AE14-41EF-AB8A-08B3F886E797}"/>
-    <hyperlink ref="A6" r:id="rId6" xr:uid="{75A4F8D6-7BF1-446B-9367-475FA4FB44C7}"/>
-    <hyperlink ref="B6" r:id="rId7" xr:uid="{01D5649A-5E55-45E1-9B81-1CE430C208A1}"/>
-    <hyperlink ref="B7" r:id="rId8" xr:uid="{B4FF4FF2-C3C7-488B-A3F2-29DB9D3EA93F}"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{8456409A-CACC-4B7E-B78E-75E713148E0E}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{5E52A498-5B14-4BDC-BBF1-05425B8AC197}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{94E9D5A6-98A1-4A25-BDDE-C5B20EDA887E}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{75A4F8D6-7BF1-446B-9367-475FA4FB44C7}"/>
+    <hyperlink ref="B5" r:id="rId5" xr:uid="{01D5649A-5E55-45E1-9B81-1CE430C208A1}"/>
+    <hyperlink ref="B6" r:id="rId6" xr:uid="{B4FF4FF2-C3C7-488B-A3F2-29DB9D3EA93F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
 </worksheet>
 </file>
--- a/testData/Opencart_LoginData.xlsx
+++ b/testData/Opencart_LoginData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Automation Code\AutomateCI\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B706D158-1D74-4419-B092-B87C9EBF1602}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FBE89C-AE28-437E-A2E4-9158CDA1F7DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16350" yWindow="-105" windowWidth="33120" windowHeight="18000" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
   </bookViews>
@@ -476,7 +476,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
